--- a/experiment/quadratic/ex9_2_2/compare/Alpha-Zero/ex9_2_2_Alpha-Zero.xlsx
+++ b/experiment/quadratic/ex9_2_2/compare/Alpha-Zero/ex9_2_2_Alpha-Zero.xlsx
@@ -479,13 +479,13 @@
         <v>-415.50250000000005</v>
       </c>
       <c r="E2">
-        <v>0.00184725</v>
+        <v>0.002001801</v>
       </c>
       <c r="F2">
-        <v>0.00636525</v>
+        <v>0.00649484</v>
       </c>
       <c r="G2">
-        <v>0.0024038534393063583</v>
+        <v>0.002536806859319452</v>
       </c>
       <c r="H2">
         <v>2064</v>
@@ -514,13 +514,13 @@
         <v>-415.5024999938478</v>
       </c>
       <c r="E3">
-        <v>0.00423936</v>
+        <v>0.003929022</v>
       </c>
       <c r="F3">
-        <v>0.00990873</v>
+        <v>0.009209618</v>
       </c>
       <c r="G3">
-        <v>0.005046192090909091</v>
+        <v>0.00493924387734916</v>
       </c>
       <c r="H3">
         <v>5557</v>
